--- a/src/main/resources/static/测试日报模板.xlsx
+++ b/src/main/resources/static/测试日报模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -214,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -326,6 +326,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -340,8 +348,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,6 +392,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -370,6 +414,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -378,105 +474,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,175 +571,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,9 +1024,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,15 +1038,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,6 +1072,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1094,17 +1105,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1127,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,140 +1139,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1833,8 +1833,8 @@
   <sheetPr/>
   <dimension ref="C5:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2369,8 +2369,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -2481,7 +2481,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2595,7 +2595,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/src/main/resources/static/测试日报模板.xlsx
+++ b/src/main/resources/static/测试日报模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="23235" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>测试文档</t>
   </si>
@@ -98,7 +98,7 @@
     <t>截止目前已解决缺陷数</t>
   </si>
   <si>
-    <t>执行进度</t>
+    <t>案例执行进度</t>
   </si>
   <si>
     <t xml:space="preserve">{{$fe:overalllistMap t.moudlename </t>
@@ -191,16 +191,19 @@
     <t xml:space="preserve">{{$fe:bugfollowlistMap t.moudlename </t>
   </si>
   <si>
+    <t>n:t.solvednumber</t>
+  </si>
+  <si>
+    <t>n:t.zmnumber</t>
+  </si>
+  <si>
+    <t>n:t.yznumber</t>
+  </si>
+  <si>
+    <t>n:t.ybnumber</t>
+  </si>
+  <si>
     <t>n:t.yjjnumber</t>
-  </si>
-  <si>
-    <t>n:t.zmnumber</t>
-  </si>
-  <si>
-    <t>n:t.yznumber</t>
-  </si>
-  <si>
-    <t>n:t.ybnumber</t>
   </si>
   <si>
     <t>n:t.jjznumber</t>
@@ -214,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -326,6 +329,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,123 +444,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -474,11 +466,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,91 +574,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,79 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,26 +1025,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1058,6 +1041,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1105,17 +1112,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,10 +1130,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,140 +1142,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1833,7 +1836,7 @@
   <sheetPr/>
   <dimension ref="C5:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2261,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:9">
+    <row r="1" ht="33" spans="1:9">
       <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2274,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
+    <row r="2" ht="21.75" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -2290,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="20.25" spans="1:9">
+    <row r="3" ht="21.75" spans="1:9">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:9">
+    <row r="4" ht="21.75" spans="1:9">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:9">
+    <row r="5" ht="21.75" spans="1:9">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -2382,7 +2385,7 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="35.25" spans="1:8">
@@ -2409,7 +2412,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2594,8 +2597,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2700,13 +2703,13 @@
         <v>59</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
